--- a/Ares at War part 1/Ares at War.xlsx
+++ b/Ares at War part 1/Ares at War.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main Project\AaW-laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMods-Github\Ares-at-War-part-1\Ares at War part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37370756-9017-4243-B807-2AB142A61E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532135B-2535-4864-8F17-A030BD54C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>FROM</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Doohan:I checked your ID. It says here that you have been a veteran of the siege of Planet 26, it was that bad huh?</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Investigate Spice DropOff</t>
+  </si>
+  <si>
+    <t>We have got intel that the Syndicates are dropping spice at this area of the planet. Investigate it and eliminate any potential enemy</t>
   </si>
 </sst>
 </file>
@@ -639,57 +648,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13F6C6C-062A-46CF-AF77-311EC85D8F2A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="1" max="1" width="131.5546875" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
@@ -701,23 +710,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="59" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -754,7 +763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -772,7 +781,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -792,7 +801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -812,7 +821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -832,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -872,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -889,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -906,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -923,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -934,7 +943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -948,7 +957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -963,7 +972,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -980,6 +989,17 @@
         <v>41</v>
       </c>
       <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}"/>
@@ -995,17 +1015,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1034,7 +1054,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1063,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1071,7 +1091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1090,7 +1110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>40</v>
       </c>

--- a/Ares at War part 1/Ares at War.xlsx
+++ b/Ares at War part 1/Ares at War.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMods-Github\Ares-at-War-part-1\Ares at War part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532135B-2535-4864-8F17-A030BD54C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6B2F99-9BCD-42D5-8667-9E8D439DF40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Missions!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>FROM</t>
   </si>
@@ -272,6 +273,18 @@
   </si>
   <si>
     <t>We have got intel that the Syndicates are dropping spice at this area of the planet. Investigate it and eliminate any potential enemy</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>AHE</t>
+  </si>
+  <si>
+    <t>The DRA have been anoyance. Destroy their HQ</t>
   </si>
 </sst>
 </file>
@@ -710,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,6 +1014,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D7BC7D-2C51-4C5E-944B-723543EF22EE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1049,7 @@
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1068,11 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1053,8 +1080,11 @@
         <v>47</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1062,8 +1092,11 @@
         <v>48</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1099,7 +1132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1110,7 +1143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>40</v>
       </c>

--- a/Ares at War part 1/Ares at War.xlsx
+++ b/Ares at War part 1/Ares at War.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMods-Github\Ares-at-War-part-1\Ares at War part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6B2F99-9BCD-42D5-8667-9E8D439DF40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C47426-7543-4E82-A5CB-5B5741690FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Missions!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>FROM</t>
   </si>
@@ -53,54 +52,30 @@
     <t>UNION</t>
   </si>
   <si>
-    <t>COUP AT AHE</t>
-  </si>
-  <si>
     <t>REQUIREMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">There are multiple employees within the AHE that have sympathese with our effort. If we can eliminate the people that do not support our effort, the way for the AHE to join the UNION is all but garanteerd </t>
   </si>
   <si>
-    <t>GATHER SUPPORT</t>
-  </si>
-  <si>
     <t>There are multiple employees within the AHE that have sympathese with our effort. The employees have smugllled some AHETech from the factory. Collect it</t>
   </si>
   <si>
     <t>Gameplay</t>
   </si>
   <si>
-    <t>Some merchants from the ITC are willing to trade some Dorium plates in exchange for a classified package, we obtained from a crashed GC ship. Go there, and perform the trade behalf of the UNION</t>
-  </si>
-  <si>
     <t>Deliver quest. On success spawn ITC cargo package</t>
   </si>
   <si>
-    <t>Some of our contacts within the Remnants have told us that some scrappers have salvaged a cronyx reactor, and are looking for buyers. We don't have cash, but we have got some intel on the GC what makes them willing to trade for.  Go to the REM HQ on lezuno, and perform the trade for us.</t>
-  </si>
-  <si>
     <t>Deliver quest. On success spawn Cronyx reactor</t>
   </si>
   <si>
-    <t>AHE not in the UNION</t>
-  </si>
-  <si>
-    <t>ITC not in the UNION</t>
-  </si>
-  <si>
-    <t>REM not in the UNION</t>
-  </si>
-  <si>
     <t>TITLE</t>
   </si>
   <si>
     <t>There are multiple employees within the AHE that have sympathese with our effort. These employees have told us that if we could destroy DRA HQ, the AHE will be in a much safer position to support us in the future.</t>
   </si>
   <si>
-    <t>Send to AHE HQ, to accept that mission from them</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -116,18 +91,9 @@
     <t>Threatscore above 400</t>
   </si>
   <si>
-    <t>Eliminate DRA</t>
-  </si>
-  <si>
     <t>On Agaris the DRA have been anoyance. Go therr and destroy them</t>
   </si>
   <si>
-    <t>Eliminate SDC</t>
-  </si>
-  <si>
-    <t>Eliminate REM</t>
-  </si>
-  <si>
     <t>Kill John above the ocean. If John escapes then the AHE joins the Union</t>
   </si>
   <si>
@@ -137,18 +103,9 @@
     <t>EFFECT</t>
   </si>
   <si>
-    <t>This is a requirement for AHE joining the UNION.</t>
-  </si>
-  <si>
     <t>This is a guarentee for AHE joining the UNION. If Bob escapes. The GC takeover crisis happens</t>
   </si>
   <si>
-    <t>This is a requirement for the REM joining the UNION</t>
-  </si>
-  <si>
-    <t>This is a requirement for ITC joining the UNION</t>
-  </si>
-  <si>
     <t>These weird believers are annoying, and a potential threat in the future. Go there and eliminate them</t>
   </si>
   <si>
@@ -158,9 +115,6 @@
     <t>Player gets tagged. GC War dog</t>
   </si>
   <si>
-    <t>FREEDOM</t>
-  </si>
-  <si>
     <t>Player gets tagged. Freedom War dog</t>
   </si>
   <si>
@@ -176,12 +130,6 @@
     <t xml:space="preserve">Player will become hostile with the AHE, and the UNION. </t>
   </si>
   <si>
-    <t>Eliminate SYN</t>
-  </si>
-  <si>
-    <t>Player friendly with the GC</t>
-  </si>
-  <si>
     <t>On Agaris the DRA have been anoyance. Go there and destroy them</t>
   </si>
   <si>
@@ -192,9 +140,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Hunt Bounty</t>
   </si>
   <si>
     <t>Eliminate Pirate Station</t>
@@ -242,9 +187,6 @@
     <t xml:space="preserve">Doohan: </t>
   </si>
   <si>
-    <t>Buyable scrap location</t>
-  </si>
-  <si>
     <t>Doohan: No time to play, I got other things to attend to do.</t>
   </si>
   <si>
@@ -285,6 +227,99 @@
   </si>
   <si>
     <t>The DRA have been anoyance. Destroy their HQ</t>
+  </si>
+  <si>
+    <t>(Mercenary) Eliminate DRA</t>
+  </si>
+  <si>
+    <t>(Mercenary) Eliminate SDC</t>
+  </si>
+  <si>
+    <t>(Mercenary) Eliminate REM</t>
+  </si>
+  <si>
+    <t>(Mercenary) Eliminate SYN</t>
+  </si>
+  <si>
+    <t>(Mercenary)</t>
+  </si>
+  <si>
+    <t>(Salvager)</t>
+  </si>
+  <si>
+    <t>(Smuggler)</t>
+  </si>
+  <si>
+    <t>(BountyHunter)</t>
+  </si>
+  <si>
+    <t>(Privateer)</t>
+  </si>
+  <si>
+    <t>(Mechanic)</t>
+  </si>
+  <si>
+    <t>Pirate with papers</t>
+  </si>
+  <si>
+    <t>(Operative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHE </t>
+  </si>
+  <si>
+    <t>(Operative) COUP AT AHE</t>
+  </si>
+  <si>
+    <t>Perform Trade</t>
+  </si>
+  <si>
+    <t>GCFriendly</t>
+  </si>
+  <si>
+    <t>!UNIONITC, MILITIAFriendly</t>
+  </si>
+  <si>
+    <t>!UNIONAHE, MILITIAFriendly</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>(Trader)</t>
+  </si>
+  <si>
+    <t>Make contact with the REM</t>
+  </si>
+  <si>
+    <t>Our effort is in a bit of a tight spot with all that is going. We could use your help. The remnants on lezuno have access to Cronyx that can be vital to our effort. I'd like you to get in contact with them, and then do whatever it takes to convince them to help us.  Someone with your background and reputation would have a better chance of reaching them than anyone I have available. Good luck</t>
+  </si>
+  <si>
+    <t>Some merchants from the ITC are willing to trade some Dorium plates in exchange for a  package, we obtained from a crashed GC ship. Go there, and perform the trade behalf of the UNION</t>
+  </si>
+  <si>
+    <t>MILITIA</t>
+  </si>
+  <si>
+    <t>Liberate Carcosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time has come. </t>
+  </si>
+  <si>
+    <t>!AHEPartOfUNION</t>
+  </si>
+  <si>
+    <t>!AHEPartOfUNION, UNIONFriendly</t>
+  </si>
+  <si>
+    <t>!GCUNIONWAR,  AHEPartOfUNION, UNIONFriendly</t>
+  </si>
+  <si>
+    <t>!REMPartOfUNION</t>
+  </si>
+  <si>
+    <t>!ITCPartOfUNION, GCUNIONWAR</t>
   </si>
 </sst>
 </file>
@@ -659,61 +694,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13F6C6C-062A-46CF-AF77-311EC85D8F2A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.5546875" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+      <c r="F7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -723,16 +791,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="59" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.44140625" customWidth="1"/>
     <col min="5" max="5" width="50.109375" customWidth="1"/>
@@ -744,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -764,16 +832,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -781,16 +852,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -799,230 +870,235 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1112,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,110 +1130,113 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Ares at War part 1/Ares at War.xlsx
+++ b/Ares at War part 1/Ares at War.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMods-Github\Ares-at-War-part-1\Ares at War part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C47426-7543-4E82-A5CB-5B5741690FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D4F4C8-F5E8-4F0A-B782-AF43A040FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
+    <workbookView xWindow="30612" yWindow="1980" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{ADE74D7A-864E-4F38-82A6-63C0F9F584E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDCEFC9-2B04-4467-BBFD-C32AD5CFFB03}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D7BC7D-2C51-4C5E-944B-723543EF22EE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
